--- a/relatorios/base_producao.xlsx
+++ b/relatorios/base_producao.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,111 +518,53 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>22:51:00</t>
+          <t>23:11:00</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>22:51:00</t>
+          <t>23:11:00</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Shuttle</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>001100</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>MercadoAzul</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1</v>
+        <v>312</v>
       </c>
       <c r="H2" s="2" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Queda energia</t>
         </is>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Cliente</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
-          <t>Serra</t>
+          <t>Retrabalho</t>
         </is>
       </c>
       <c r="L2" s="2" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>2025-09-14</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>22:53:00</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>22:53:00</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>Solda</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
